--- a/data/EmpresesProvincia.xlsx
+++ b/data/EmpresesProvincia.xlsx
@@ -1,259 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\Hackaton-UAB-2025\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA98C9E-D029-4FA2-904D-51115B2AC1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4EEA3490-7564-45D2-A2CA-A64496852BF8}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>01 Araba/Álava</t>
-  </si>
-  <si>
-    <t>02 Albacete</t>
-  </si>
-  <si>
-    <t>03 Alicante/Alacant</t>
-  </si>
-  <si>
-    <t>04 Almería</t>
-  </si>
-  <si>
-    <t>05 Ávila</t>
-  </si>
-  <si>
-    <t>06 Badajoz</t>
-  </si>
-  <si>
-    <t>07 Balears, Illes</t>
-  </si>
-  <si>
-    <t>08 Barcelona</t>
-  </si>
-  <si>
-    <t>09 Burgos</t>
-  </si>
-  <si>
-    <t>10 Cáceres</t>
-  </si>
-  <si>
-    <t>11 Cádiz</t>
-  </si>
-  <si>
-    <t>12 Castellón/Castelló</t>
-  </si>
-  <si>
-    <t>13 Ciudad Real</t>
-  </si>
-  <si>
-    <t>14 Córdoba</t>
-  </si>
-  <si>
-    <t>15 Coruña, A</t>
-  </si>
-  <si>
-    <t>16 Cuenca</t>
-  </si>
-  <si>
-    <t>17 Girona</t>
-  </si>
-  <si>
-    <t>18 Granada</t>
-  </si>
-  <si>
-    <t>19 Guadalajara</t>
-  </si>
-  <si>
-    <t>20 Gipuzkoa</t>
-  </si>
-  <si>
-    <t>21 Huelva</t>
-  </si>
-  <si>
-    <t>22 Huesca</t>
-  </si>
-  <si>
-    <t>23 Jaén</t>
-  </si>
-  <si>
-    <t>24 León</t>
-  </si>
-  <si>
-    <t>25 Lleida</t>
-  </si>
-  <si>
-    <t>26 Rioja, La</t>
-  </si>
-  <si>
-    <t>27 Lugo</t>
-  </si>
-  <si>
-    <t>28 Madrid</t>
-  </si>
-  <si>
-    <t>29 Málaga</t>
-  </si>
-  <si>
-    <t>30 Murcia</t>
-  </si>
-  <si>
-    <t>31 Navarra</t>
-  </si>
-  <si>
-    <t>32 Ourense</t>
-  </si>
-  <si>
-    <t>33 Asturias</t>
-  </si>
-  <si>
-    <t>34 Palencia</t>
-  </si>
-  <si>
-    <t>35 Palmas, Las</t>
-  </si>
-  <si>
-    <t>36 Pontevedra</t>
-  </si>
-  <si>
-    <t>37 Salamanca</t>
-  </si>
-  <si>
-    <t>38 Santa Cruz de Tenerife</t>
-  </si>
-  <si>
-    <t>39 Cantabria</t>
-  </si>
-  <si>
-    <t>40 Segovia</t>
-  </si>
-  <si>
-    <t>41 Sevilla</t>
-  </si>
-  <si>
-    <t>42 Soria</t>
-  </si>
-  <si>
-    <t>43 Tarragona</t>
-  </si>
-  <si>
-    <t>44 Teruel</t>
-  </si>
-  <si>
-    <t>45 Toledo</t>
-  </si>
-  <si>
-    <t>46 Valencia/València</t>
-  </si>
-  <si>
-    <t>47 Valladolid</t>
-  </si>
-  <si>
-    <t>48 Bizkaia</t>
-  </si>
-  <si>
-    <t>49 Zamora</t>
-  </si>
-  <si>
-    <t>50 Zaragoza</t>
-  </si>
-  <si>
-    <t>51 Ceuta</t>
-  </si>
-  <si>
-    <t>52 Melilla</t>
-  </si>
-  <si>
-    <t>Provincias/Any</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -279,57 +65,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDD20F3B-F718-4C44-80A3-1296140D990C}" name="Tabla1" displayName="Tabla1" ref="A1:O53" totalsRowShown="0">
-  <autoFilter ref="A1:O53" xr:uid="{DDD20F3B-F718-4C44-80A3-1296140D990C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O53">
-    <sortCondition ref="A1:A53"/>
-  </sortState>
-  <tableColumns count="15">
-    <tableColumn id="17" xr3:uid="{CB725CBD-C13F-4409-AB34-0B26A826EFCC}" name="Provincias/Any" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{30A0FAB6-CB89-4E92-B3A5-6F462653A8AA}" name="2009"/>
-    <tableColumn id="3" xr3:uid="{90B1A875-405F-4C4D-8240-3D15CC661983}" name="2010"/>
-    <tableColumn id="4" xr3:uid="{216E8D91-9BCB-4E4E-9EAC-867CA2FC45AC}" name="2011"/>
-    <tableColumn id="5" xr3:uid="{2091D334-333A-4198-B61B-2D4B6F389325}" name="2012"/>
-    <tableColumn id="6" xr3:uid="{436C5608-9CA4-4F79-9FE2-2CE832C827B3}" name="2013"/>
-    <tableColumn id="7" xr3:uid="{DE02FFDB-13FB-4FEE-894F-F21CDFD012A9}" name="2014"/>
-    <tableColumn id="8" xr3:uid="{E7DCFF17-18CE-4910-8A7C-A675B9E7BDB1}" name="2015"/>
-    <tableColumn id="9" xr3:uid="{77D1BFE9-8831-4935-8DF1-38C9A52FE626}" name="2016"/>
-    <tableColumn id="10" xr3:uid="{1B90D4AD-19C8-4C4A-AFF6-6EA52B0BF7F2}" name="2017"/>
-    <tableColumn id="11" xr3:uid="{9CF72BCA-4B94-457D-8AF9-68CB3B94D99D}" name="2018"/>
-    <tableColumn id="12" xr3:uid="{10838EDE-4523-4C5F-8D6D-99914AAA03AB}" name="2019"/>
-    <tableColumn id="13" xr3:uid="{EBE6173D-9A3E-454D-8597-86ABFC7B394D}" name="2020"/>
-    <tableColumn id="14" xr3:uid="{E0FFDF11-BA12-48BF-9490-05A41C978EB9}" name="2021"/>
-    <tableColumn id="15" xr3:uid="{ED437D70-0710-470F-8A91-AB8EACA9C6DD}" name="2022"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -339,44 +86,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -404,31 +151,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -456,23 +186,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,136 +197,180 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -635,2526 +392,2510 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED34D48-000E-410A-BF68-33381C07028A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Provincias/Any</v>
+      </c>
+      <c r="B1" t="str">
+        <v>2009</v>
+      </c>
+      <c r="C1" t="str">
+        <v>2010</v>
+      </c>
+      <c r="D1" t="str">
+        <v>2011</v>
+      </c>
+      <c r="E1" t="str">
+        <v>2012</v>
+      </c>
+      <c r="F1" t="str">
+        <v>2013</v>
+      </c>
+      <c r="G1" t="str">
+        <v>2014</v>
+      </c>
+      <c r="H1" t="str">
+        <v>2015</v>
+      </c>
+      <c r="I1" t="str">
+        <v>2016</v>
+      </c>
+      <c r="J1" t="str">
+        <v>2017</v>
+      </c>
+      <c r="K1" t="str">
+        <v>2018</v>
+      </c>
+      <c r="L1" t="str">
+        <v>2019</v>
+      </c>
+      <c r="M1" t="str">
+        <v>2020</v>
+      </c>
+      <c r="N1" t="str">
+        <v>2021</v>
+      </c>
+      <c r="O1" t="str">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>01 Araba/Álava</v>
+      </c>
+      <c r="B2" t="str">
         <v>21598</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <v>21138</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="str">
         <v>20588</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="str">
         <v>20055</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="str">
         <v>19533</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="str">
         <v>19471</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="str">
         <v>19919</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="str">
         <v>18478</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="str">
         <v>19108</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="str">
         <v>18678</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="str">
         <v>18851</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="str">
         <v>18628</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="str">
         <v>18771</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="str">
         <v>17629</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="str">
+        <v>02 Albacete</v>
+      </c>
+      <c r="B3" t="str">
         <v>27233</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <v>26800</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="str">
         <v>26339</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="str">
         <v>25996</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="str">
         <v>26102</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="str">
         <v>26609</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="str">
         <v>26833</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="str">
         <v>26906</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="str">
         <v>26698</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="str">
         <v>26275</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="str">
         <v>26350</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="str">
         <v>26221</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="str">
         <v>26473</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="str">
         <v>24852</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="str">
+        <v>03 Alicante/Alacant</v>
+      </c>
+      <c r="B4" t="str">
         <v>132637</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <v>131457</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="str">
         <v>129564</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="str">
         <v>127638</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="str">
         <v>126113</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="str">
         <v>130228</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="str">
         <v>133056</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="str">
         <v>135420</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="str">
         <v>138909</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="str">
         <v>142933</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="str">
         <v>145431</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="str">
         <v>144573</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="str">
         <v>147286</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="str">
         <v>136754</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="str">
+        <v>04 Almería</v>
+      </c>
+      <c r="B5" t="str">
         <v>42535</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <v>41548</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="str">
         <v>40995</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="str">
         <v>40516</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="str">
         <v>39410</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="str">
         <v>40208</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="str">
         <v>41197</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="str">
         <v>42314</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="str">
         <v>42936</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="str">
         <v>43406</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="str">
         <v>44092</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="str">
         <v>44437</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="str">
         <v>45281</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="str">
         <v>42724</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="str">
+        <v>05 Ávila</v>
+      </c>
+      <c r="B6" t="str">
         <v>11374</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
         <v>10735</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="str">
         <v>10729</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="str">
         <v>10307</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="str">
         <v>10025</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="str">
         <v>10146</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="str">
         <v>10074</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="str">
         <v>10165</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="str">
         <v>10166</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="str">
         <v>10157</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="str">
         <v>10198</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="str">
         <v>10045</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="str">
         <v>10099</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="str">
         <v>9670</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="str">
+        <v>06 Badajoz</v>
+      </c>
+      <c r="B7" t="str">
         <v>39701</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
         <v>39343</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="str">
         <v>39340</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="str">
         <v>38776</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="str">
         <v>38454</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="str">
         <v>39463</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="str">
         <v>40437</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="str">
         <v>40707</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="str">
         <v>41482</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="str">
         <v>41949</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="str">
         <v>41661</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="str">
         <v>41122</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="str">
         <v>41845</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="str">
         <v>39274</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="str">
+        <v>07 Balears, Illes</v>
+      </c>
+      <c r="B8" t="str">
         <v>89443</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="str">
         <v>87361</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="str">
         <v>85262</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="str">
         <v>84915</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
         <v>84097</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="str">
         <v>86974</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="str">
         <v>89248</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="str">
         <v>92983</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="str">
         <v>96553</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="str">
         <v>98712</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="str">
         <v>100022</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="str">
         <v>98120</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="str">
         <v>101236</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="str">
         <v>97784</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="str">
+        <v>08 Barcelona</v>
+      </c>
+      <c r="B9" t="str">
         <v>458411</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="str">
         <v>453044</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="str">
         <v>445516</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="str">
         <v>437938</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
         <v>434113</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="str">
         <v>440416</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="str">
         <v>450118</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="str">
         <v>460302</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="str">
         <v>468402</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="str">
         <v>470067</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="str">
         <v>477734</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="str">
         <v>471885</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="str">
         <v>480301</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="str">
         <v>445119</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="str">
+        <v>09 Burgos</v>
+      </c>
+      <c r="B10" t="str">
         <v>25393</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
         <v>25179</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="str">
         <v>25166</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="str">
         <v>25051</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="str">
         <v>24687</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="str">
         <v>25228</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="str">
         <v>25556</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="str">
         <v>25783</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="str">
         <v>26003</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="str">
         <v>25857</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="str">
         <v>25593</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="str">
         <v>25238</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="str">
         <v>25391</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="str">
         <v>23673</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" t="str">
+        <v>10 Cáceres</v>
+      </c>
+      <c r="B11" t="str">
         <v>25786</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
         <v>25629</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="str">
         <v>25195</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="str">
         <v>24498</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="str">
         <v>24227</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="str">
         <v>24763</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="str">
         <v>24942</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="str">
         <v>25036</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="str">
         <v>25385</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="str">
         <v>25738</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="str">
         <v>25675</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="str">
         <v>25264</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="str">
         <v>25409</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="str">
         <v>23820</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" t="str">
+        <v>11 Cádiz</v>
+      </c>
+      <c r="B12" t="str">
         <v>61021</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="str">
         <v>60125</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="str">
         <v>58960</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="str">
         <v>57288</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
         <v>56834</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="str">
         <v>57724</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="str">
         <v>58620</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="str">
         <v>60135</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="str">
         <v>60680</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="str">
         <v>61786</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="str">
         <v>63374</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="str">
         <v>63833</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="str">
         <v>65560</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="str">
         <v>62867</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" t="str">
+        <v>12 Castellón/Castelló</v>
+      </c>
+      <c r="B13" t="str">
         <v>40766</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="str">
         <v>40339</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="str">
         <v>39707</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="str">
         <v>38698</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <v>37992</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="str">
         <v>38582</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="str">
         <v>39209</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="str">
         <v>39569</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="str">
         <v>39783</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="str">
         <v>39742</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="str">
         <v>40796</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="str">
         <v>40620</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="str">
         <v>41269</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="str">
         <v>38897</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" t="str">
+        <v>13 Ciudad Real</v>
+      </c>
+      <c r="B14" t="str">
         <v>31602</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="str">
         <v>31073</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="str">
         <v>30548</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="str">
         <v>29649</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
         <v>29287</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="str">
         <v>30055</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="str">
         <v>30285</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="str">
         <v>30384</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="str">
         <v>30595</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="str">
         <v>30790</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="str">
         <v>30419</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="str">
         <v>30036</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="str">
         <v>30574</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="str">
         <v>28597</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" t="str">
+        <v>14 Córdoba</v>
+      </c>
+      <c r="B15" t="str">
         <v>48222</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="str">
         <v>47422</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="str">
         <v>46553</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="str">
         <v>45278</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
         <v>45173</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="str">
         <v>45904</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="str">
         <v>46256</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="str">
         <v>47085</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="str">
         <v>47200</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="str">
         <v>47874</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="str">
         <v>48326</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="str">
         <v>48126</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="str">
         <v>48946</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="str">
         <v>46390</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" t="str">
+        <v>15 Coruña, A</v>
+      </c>
+      <c r="B16" t="str">
         <v>82660</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="str">
         <v>81244</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="str">
         <v>80319</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="str">
         <v>80135</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
         <v>79714</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="str">
         <v>81258</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="str">
         <v>82088</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="str">
         <v>82341</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="str">
         <v>83270</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="str">
         <v>83316</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="str">
         <v>81599</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="str">
         <v>80233</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="str">
         <v>81161</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="str">
         <v>76652</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" t="str">
+        <v>16 Cuenca</v>
+      </c>
+      <c r="B17" t="str">
         <v>14249</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="str">
         <v>13983</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="str">
         <v>13680</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="str">
         <v>13480</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
         <v>13306</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="str">
         <v>13518</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="str">
         <v>13615</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="str">
         <v>13596</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="str">
         <v>13647</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="str">
         <v>13704</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="str">
         <v>13604</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="str">
         <v>13394</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="str">
         <v>13563</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="str">
         <v>12837</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" t="str">
+        <v>17 Girona</v>
+      </c>
+      <c r="B18" t="str">
         <v>58197</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
         <v>57992</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="str">
         <v>57911</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="str">
         <v>57182</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
         <v>57544</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="str">
         <v>58903</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="str">
         <v>60450</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="str">
         <v>61982</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="str">
         <v>62941</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <v>63357</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="str">
         <v>64413</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="str">
         <v>64258</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="str">
         <v>65628</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="str">
         <v>62848</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" t="str">
+        <v>18 Granada</v>
+      </c>
+      <c r="B19" t="str">
         <v>58317</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
         <v>57618</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="str">
         <v>56209</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="str">
         <v>55183</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
         <v>54319</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="str">
         <v>55654</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="str">
         <v>56872</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="str">
         <v>58415</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="str">
         <v>59101</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="str">
         <v>60020</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="str">
         <v>61384</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="str">
         <v>61148</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="str">
         <v>62568</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="str">
         <v>59279</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" t="str">
+        <v>19 Guadalajara</v>
+      </c>
+      <c r="B20" t="str">
         <v>13468</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
         <v>13251</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="str">
         <v>13199</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="str">
         <v>13058</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <v>12809</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="str">
         <v>13133</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="str">
         <v>13349</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="str">
         <v>13259</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="str">
         <v>13359</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="str">
         <v>13376</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="str">
         <v>13602</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="str">
         <v>13498</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="str">
         <v>13785</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="str">
         <v>13284</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" t="str">
+        <v>20 Gipuzkoa</v>
+      </c>
+      <c r="B21" t="str">
         <v>60406</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
         <v>58289</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="str">
         <v>55433</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="str">
         <v>53445</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <v>51802</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="str">
         <v>51121</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="str">
         <v>51788</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="str">
         <v>48189</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="str">
         <v>49482</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="str">
         <v>48779</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="str">
         <v>48807</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="str">
         <v>47581</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="str">
         <v>48717</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="str">
         <v>46450</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" t="str">
+        <v>21 Huelva</v>
+      </c>
+      <c r="B22" t="str">
         <v>26263</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="str">
         <v>25795</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="str">
         <v>24981</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="str">
         <v>24168</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <v>23483</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="str">
         <v>23737</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="str">
         <v>23897</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="str">
         <v>24414</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="str">
         <v>24666</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="str">
         <v>25236</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="str">
         <v>25755</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="str">
         <v>25739</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="str">
         <v>26357</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="str">
         <v>25345</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" t="str">
+        <v>22 Huesca</v>
+      </c>
+      <c r="B23" t="str">
         <v>16511</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="str">
         <v>16347</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="str">
         <v>16112</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="str">
         <v>15931</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <v>15930</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="str">
         <v>16257</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="str">
         <v>16368</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="str">
         <v>16435</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="str">
         <v>16501</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="str">
         <v>16459</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="str">
         <v>16541</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="str">
         <v>16152</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="str">
         <v>16388</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="str">
         <v>15646</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" t="str">
+        <v>23 Jaén</v>
+      </c>
+      <c r="B24" t="str">
         <v>35769</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="str">
         <v>34924</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="str">
         <v>33981</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="str">
         <v>33158</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <v>32632</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="str">
         <v>32945</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="str">
         <v>33251</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="str">
         <v>33839</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="str">
         <v>34036</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="str">
         <v>34191</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="str">
         <v>34791</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="str">
         <v>34754</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="str">
         <v>35363</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="str">
         <v>33777</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" t="str">
+        <v>24 León</v>
+      </c>
+      <c r="B25" t="str">
         <v>33090</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="str">
         <v>32632</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="str">
         <v>32344</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="str">
         <v>31591</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <v>30975</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="str">
         <v>31231</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="str">
         <v>31407</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="str">
         <v>31143</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="str">
         <v>31259</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="str">
         <v>31151</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="str">
         <v>30838</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="str">
         <v>30006</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="str">
         <v>30067</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="str">
         <v>27952</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" t="str">
+        <v>25 Lleida</v>
+      </c>
+      <c r="B26" t="str">
         <v>36552</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="str">
         <v>35686</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="str">
         <v>34772</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="str">
         <v>33798</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <v>33266</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="str">
         <v>33160</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="str">
         <v>33286</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="str">
         <v>33593</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="str">
         <v>33670</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="str">
         <v>33299</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="str">
         <v>33512</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="str">
         <v>33060</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="str">
         <v>33407</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="str">
         <v>31595</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27">
+    <row r="27">
+      <c r="A27" t="str">
+        <v>26 Rioja, La</v>
+      </c>
+      <c r="B27" t="str">
         <v>23106</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="str">
         <v>22727</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="str">
         <v>22424</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="str">
         <v>22256</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <v>22195</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="str">
         <v>22980</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="str">
         <v>23003</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="str">
         <v>23097</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="str">
         <v>23154</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="str">
         <v>22669</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="str">
         <v>22700</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="str">
         <v>22357</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="str">
         <v>22532</v>
       </c>
-      <c r="O27">
+      <c r="O27" t="str">
         <v>21178</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
+    <row r="28">
+      <c r="A28" t="str">
+        <v>27 Lugo</v>
+      </c>
+      <c r="B28" t="str">
         <v>24703</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="str">
         <v>24464</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="str">
         <v>24267</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="str">
         <v>23995</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <v>23603</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="str">
         <v>24005</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="str">
         <v>24324</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="str">
         <v>24540</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="str">
         <v>24747</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="str">
         <v>24792</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="str">
         <v>24432</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="str">
         <v>24059</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="str">
         <v>24109</v>
       </c>
-      <c r="O28">
+      <c r="O28" t="str">
         <v>22600</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29">
+    <row r="29">
+      <c r="A29" t="str">
+        <v>28 Madrid</v>
+      </c>
+      <c r="B29" t="str">
         <v>502973</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="str">
         <v>501284</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="str">
         <v>498524</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="str">
         <v>495536</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <v>493617</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="str">
         <v>507852</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="str">
         <v>515847</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="str">
         <v>525811</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="str">
         <v>538704</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="str">
         <v>540544</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="str">
         <v>552027</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="str">
         <v>547040</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="str">
         <v>558607</v>
       </c>
-      <c r="O29">
+      <c r="O29" t="str">
         <v>503018</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30">
+    <row r="30">
+      <c r="A30" t="str">
+        <v>29 Málaga</v>
+      </c>
+      <c r="B30" t="str">
         <v>110176</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="str">
         <v>109546</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="str">
         <v>107305</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="str">
         <v>105701</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <v>107720</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="str">
         <v>111651</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="str">
         <v>115348</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="str">
         <v>119425</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="str">
         <v>123067</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="str">
         <v>126509</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="str">
         <v>131395</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="str">
         <v>130632</v>
       </c>
-      <c r="N30">
+      <c r="N30" t="str">
         <v>136170</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="str">
         <v>132168</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31">
+    <row r="31">
+      <c r="A31" t="str">
+        <v>30 Murcia</v>
+      </c>
+      <c r="B31" t="str">
         <v>92086</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="str">
         <v>90706</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="str">
         <v>88410</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="str">
         <v>86983</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <v>86529</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="str">
         <v>89734</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="str">
         <v>91887</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="str">
         <v>93418</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="str">
         <v>95441</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="str">
         <v>95456</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="str">
         <v>96764</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="str">
         <v>95294</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="str">
         <v>97014</v>
       </c>
-      <c r="O31">
+      <c r="O31" t="str">
         <v>91290</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32">
+    <row r="32">
+      <c r="A32" t="str">
+        <v>31 Navarra</v>
+      </c>
+      <c r="B32" t="str">
         <v>42268</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="str">
         <v>41465</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="str">
         <v>41219</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="str">
         <v>40759</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <v>41430</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="str">
         <v>42948</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="str">
         <v>43812</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="str">
         <v>44015</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="str">
         <v>44095</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="str">
         <v>44224</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="str">
         <v>44430</v>
       </c>
-      <c r="M32">
+      <c r="M32" t="str">
         <v>44334</v>
       </c>
-      <c r="N32">
+      <c r="N32" t="str">
         <v>45738</v>
       </c>
-      <c r="O32">
+      <c r="O32" t="str">
         <v>41152</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33">
+    <row r="33">
+      <c r="A33" t="str">
+        <v>32 Ourense</v>
+      </c>
+      <c r="B33" t="str">
         <v>23089</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="str">
         <v>22968</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="str">
         <v>22814</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="str">
         <v>22674</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <v>22564</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="str">
         <v>22895</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="str">
         <v>23031</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="str">
         <v>23119</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="str">
         <v>23274</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="str">
         <v>23166</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="str">
         <v>22682</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="str">
         <v>22322</v>
       </c>
-      <c r="N33">
+      <c r="N33" t="str">
         <v>22373</v>
       </c>
-      <c r="O33">
+      <c r="O33" t="str">
         <v>20839</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34">
+    <row r="34">
+      <c r="A34" t="str">
+        <v>33 Asturias</v>
+      </c>
+      <c r="B34" t="str">
         <v>70292</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="str">
         <v>69764</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="str">
         <v>68864</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="str">
         <v>66771</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <v>66186</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="str">
         <v>67283</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="str">
         <v>67588</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="str">
         <v>68319</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="str">
         <v>68642</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="str">
         <v>68661</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="str">
         <v>68433</v>
       </c>
-      <c r="M34">
+      <c r="M34" t="str">
         <v>67573</v>
       </c>
-      <c r="N34">
+      <c r="N34" t="str">
         <v>68068</v>
       </c>
-      <c r="O34">
+      <c r="O34" t="str">
         <v>64611</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35">
+    <row r="35">
+      <c r="A35" t="str">
+        <v>34 Palencia</v>
+      </c>
+      <c r="B35" t="str">
         <v>10812</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="str">
         <v>10746</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="str">
         <v>10632</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="str">
         <v>10431</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <v>10296</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="str">
         <v>10203</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="str">
         <v>10118</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="str">
         <v>10015</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="str">
         <v>10019</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="str">
         <v>9860</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="str">
         <v>9813</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="str">
         <v>9639</v>
       </c>
-      <c r="N35">
+      <c r="N35" t="str">
         <v>9613</v>
       </c>
-      <c r="O35">
+      <c r="O35" t="str">
         <v>8956</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36">
+    <row r="36">
+      <c r="A36" t="str">
+        <v>35 Palmas, Las</v>
+      </c>
+      <c r="B36" t="str">
         <v>70769</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="str">
         <v>68718</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="str">
         <v>68011</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="str">
         <v>67229</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <v>66648</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="str">
         <v>69071</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="str">
         <v>70509</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="str">
         <v>73457</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="str">
         <v>75710</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="str">
         <v>78310</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="str">
         <v>78786</v>
       </c>
-      <c r="M36">
+      <c r="M36" t="str">
         <v>76204</v>
       </c>
-      <c r="N36">
+      <c r="N36" t="str">
         <v>77896</v>
       </c>
-      <c r="O36">
+      <c r="O36" t="str">
         <v>70871</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37">
+    <row r="37">
+      <c r="A37" t="str">
+        <v>36 Pontevedra</v>
+      </c>
+      <c r="B37" t="str">
         <v>68253</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="str">
         <v>67635</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="str">
         <v>66868</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="str">
         <v>65970</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <v>65301</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="str">
         <v>66907</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="str">
         <v>67904</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="str">
         <v>68772</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="str">
         <v>69392</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="str">
         <v>69698</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="str">
         <v>69100</v>
       </c>
-      <c r="M37">
+      <c r="M37" t="str">
         <v>68043</v>
       </c>
-      <c r="N37">
+      <c r="N37" t="str">
         <v>68887</v>
       </c>
-      <c r="O37">
+      <c r="O37" t="str">
         <v>65088</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38">
+    <row r="38">
+      <c r="A38" t="str">
+        <v>37 Salamanca</v>
+      </c>
+      <c r="B38" t="str">
         <v>23371</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="str">
         <v>22982</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="str">
         <v>22605</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="str">
         <v>22534</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <v>22235</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="str">
         <v>22255</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="str">
         <v>22239</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="str">
         <v>22322</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="str">
         <v>22365</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="str">
         <v>22451</v>
       </c>
-      <c r="L38">
+      <c r="L38" t="str">
         <v>22380</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="str">
         <v>21915</v>
       </c>
-      <c r="N38">
+      <c r="N38" t="str">
         <v>21952</v>
       </c>
-      <c r="O38">
+      <c r="O38" t="str">
         <v>20635</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39">
+    <row r="39">
+      <c r="A39" t="str">
+        <v>38 Santa Cruz de Tenerife</v>
+      </c>
+      <c r="B39" t="str">
         <v>64944</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="str">
         <v>63633</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="str">
         <v>63106</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="str">
         <v>62188</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <v>61678</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="str">
         <v>63561</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="str">
         <v>65208</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="str">
         <v>67944</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="str">
         <v>70284</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="str">
         <v>73351</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="str">
         <v>73970</v>
       </c>
-      <c r="M39">
+      <c r="M39" t="str">
         <v>71795</v>
       </c>
-      <c r="N39">
+      <c r="N39" t="str">
         <v>73950</v>
       </c>
-      <c r="O39">
+      <c r="O39" t="str">
         <v>68374</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40">
+    <row r="40">
+      <c r="A40" t="str">
+        <v>39 Cantabria</v>
+      </c>
+      <c r="B40" t="str">
         <v>38924</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="str">
         <v>38801</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="str">
         <v>38047</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="str">
         <v>37116</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <v>36612</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="str">
         <v>37212</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="str">
         <v>37638</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="str">
         <v>38390</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="str">
         <v>38483</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="str">
         <v>38702</v>
       </c>
-      <c r="L40">
+      <c r="L40" t="str">
         <v>38880</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="str">
         <v>38636</v>
       </c>
-      <c r="N40">
+      <c r="N40" t="str">
         <v>38960</v>
       </c>
-      <c r="O40">
+      <c r="O40" t="str">
         <v>37801</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41">
+    <row r="41">
+      <c r="A41" t="str">
+        <v>40 Segovia</v>
+      </c>
+      <c r="B41" t="str">
         <v>11578</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="str">
         <v>11372</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="str">
         <v>11206</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="str">
         <v>11079</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <v>10634</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="str">
         <v>10739</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="str">
         <v>10797</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="str">
         <v>10734</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="str">
         <v>10790</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="str">
         <v>10818</v>
       </c>
-      <c r="L41">
+      <c r="L41" t="str">
         <v>10825</v>
       </c>
-      <c r="M41">
+      <c r="M41" t="str">
         <v>10756</v>
       </c>
-      <c r="N41">
+      <c r="N41" t="str">
         <v>10850</v>
       </c>
-      <c r="O41">
+      <c r="O41" t="str">
         <v>10416</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42">
+    <row r="42">
+      <c r="A42" t="str">
+        <v>41 Sevilla</v>
+      </c>
+      <c r="B42" t="str">
         <v>115963</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="str">
         <v>115027</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="str">
         <v>112942</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="str">
         <v>109933</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <v>108516</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="str">
         <v>111443</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="str">
         <v>113510</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="str">
         <v>115831</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="str">
         <v>117353</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="str">
         <v>119510</v>
       </c>
-      <c r="L42">
+      <c r="L42" t="str">
         <v>121928</v>
       </c>
-      <c r="M42">
+      <c r="M42" t="str">
         <v>122491</v>
       </c>
-      <c r="N42">
+      <c r="N42" t="str">
         <v>125257</v>
       </c>
-      <c r="O42">
+      <c r="O42" t="str">
         <v>118320</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43">
+    <row r="43">
+      <c r="A43" t="str">
+        <v>42 Soria</v>
+      </c>
+      <c r="B43" t="str">
         <v>5881</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="str">
         <v>5862</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="str">
         <v>5893</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="str">
         <v>5828</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <v>5787</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="str">
         <v>5883</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="str">
         <v>5780</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="str">
         <v>5728</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="str">
         <v>5685</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="str">
         <v>5631</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="str">
         <v>5688</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="str">
         <v>5670</v>
       </c>
-      <c r="N43">
+      <c r="N43" t="str">
         <v>5690</v>
       </c>
-      <c r="O43">
+      <c r="O43" t="str">
         <v>5473</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44">
+    <row r="44">
+      <c r="A44" t="str">
+        <v>43 Tarragona</v>
+      </c>
+      <c r="B44" t="str">
         <v>55886</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="str">
         <v>54493</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="str">
         <v>53206</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="str">
         <v>51332</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <v>50563</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="str">
         <v>50966</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="str">
         <v>51864</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="str">
         <v>52509</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="str">
         <v>52895</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="str">
         <v>53308</v>
       </c>
-      <c r="L44">
+      <c r="L44" t="str">
         <v>54217</v>
       </c>
-      <c r="M44">
+      <c r="M44" t="str">
         <v>53764</v>
       </c>
-      <c r="N44">
+      <c r="N44" t="str">
         <v>54887</v>
       </c>
-      <c r="O44">
+      <c r="O44" t="str">
         <v>52172</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45">
+    <row r="45">
+      <c r="A45" t="str">
+        <v>44 Teruel</v>
+      </c>
+      <c r="B45" t="str">
         <v>9383</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="str">
         <v>9249</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="str">
         <v>9196</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="str">
         <v>9003</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <v>8936</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="str">
         <v>9082</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="str">
         <v>9259</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="str">
         <v>9285</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="str">
         <v>9338</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="str">
         <v>9319</v>
       </c>
-      <c r="L45">
+      <c r="L45" t="str">
         <v>9281</v>
       </c>
-      <c r="M45">
+      <c r="M45" t="str">
         <v>9039</v>
       </c>
-      <c r="N45">
+      <c r="N45" t="str">
         <v>9138</v>
       </c>
-      <c r="O45">
+      <c r="O45" t="str">
         <v>8612</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46">
+    <row r="46">
+      <c r="A46" t="str">
+        <v>45 Toledo</v>
+      </c>
+      <c r="B46" t="str">
         <v>45179</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="str">
         <v>44809</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="str">
         <v>43661</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="str">
         <v>42062</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <v>41227</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="str">
         <v>42093</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="str">
         <v>42214</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="str">
         <v>42843</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="str">
         <v>43283</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="str">
         <v>43961</v>
       </c>
-      <c r="L46">
+      <c r="L46" t="str">
         <v>44738</v>
       </c>
-      <c r="M46">
+      <c r="M46" t="str">
         <v>44524</v>
       </c>
-      <c r="N46">
+      <c r="N46" t="str">
         <v>45231</v>
       </c>
-      <c r="O46">
+      <c r="O46" t="str">
         <v>43290</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47">
+    <row r="47">
+      <c r="A47" t="str">
+        <v>46 Valencia/València</v>
+      </c>
+      <c r="B47" t="str">
         <v>178609</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="str">
         <v>176904</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="str">
         <v>172845</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="str">
         <v>170501</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <v>166021</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="str">
         <v>170096</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="str">
         <v>172070</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="str">
         <v>174858</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="str">
         <v>177629</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="str">
         <v>180753</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="str">
         <v>184418</v>
       </c>
-      <c r="M47">
+      <c r="M47" t="str">
         <v>182851</v>
       </c>
-      <c r="N47">
+      <c r="N47" t="str">
         <v>186362</v>
       </c>
-      <c r="O47">
+      <c r="O47" t="str">
         <v>177339</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48">
+    <row r="48">
+      <c r="A48" t="str">
+        <v>47 Valladolid</v>
+      </c>
+      <c r="B48" t="str">
         <v>35222</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="str">
         <v>34821</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="str">
         <v>34274</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="str">
         <v>33418</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <v>32714</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="str">
         <v>33244</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="str">
         <v>33565</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="str">
         <v>33938</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="str">
         <v>33995</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="str">
         <v>33934</v>
       </c>
-      <c r="L48">
+      <c r="L48" t="str">
         <v>33456</v>
       </c>
-      <c r="M48">
+      <c r="M48" t="str">
         <v>32732</v>
       </c>
-      <c r="N48">
+      <c r="N48" t="str">
         <v>32948</v>
       </c>
-      <c r="O48">
+      <c r="O48" t="str">
         <v>31035</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49">
+    <row r="49">
+      <c r="A49" t="str">
+        <v>48 Bizkaia</v>
+      </c>
+      <c r="B49" t="str">
         <v>87202</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="str">
         <v>85628</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="str">
         <v>82517</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="str">
         <v>79746</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <v>77207</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="str">
         <v>77449</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="str">
         <v>78727</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="str">
         <v>73291</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="str">
         <v>75454</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="str">
         <v>74741</v>
       </c>
-      <c r="L49">
+      <c r="L49" t="str">
         <v>75370</v>
       </c>
-      <c r="M49">
+      <c r="M49" t="str">
         <v>73615</v>
       </c>
-      <c r="N49">
+      <c r="N49" t="str">
         <v>75416</v>
       </c>
-      <c r="O49">
+      <c r="O49" t="str">
         <v>70780</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50">
+    <row r="50">
+      <c r="A50" t="str">
+        <v>49 Zamora</v>
+      </c>
+      <c r="B50" t="str">
         <v>12093</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="str">
         <v>11998</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="str">
         <v>11965</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="str">
         <v>11771</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
         <v>11623</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="str">
         <v>11678</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="str">
         <v>11695</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="str">
         <v>11632</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="str">
         <v>11629</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="str">
         <v>11548</v>
       </c>
-      <c r="L50">
+      <c r="L50" t="str">
         <v>11408</v>
       </c>
-      <c r="M50">
+      <c r="M50" t="str">
         <v>11130</v>
       </c>
-      <c r="N50">
+      <c r="N50" t="str">
         <v>11120</v>
       </c>
-      <c r="O50">
+      <c r="O50" t="str">
         <v>10413</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51">
+    <row r="51">
+      <c r="A51" t="str">
+        <v>50 Zaragoza</v>
+      </c>
+      <c r="B51" t="str">
         <v>66158</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="str">
         <v>65123</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="str">
         <v>63649</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="str">
         <v>62993</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
         <v>62923</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="str">
         <v>64217</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="str">
         <v>64559</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="str">
         <v>65029</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="str">
         <v>65587</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="str">
         <v>65336</v>
       </c>
-      <c r="L51">
+      <c r="L51" t="str">
         <v>64860</v>
       </c>
-      <c r="M51">
+      <c r="M51" t="str">
         <v>63411</v>
       </c>
-      <c r="N51">
+      <c r="N51" t="str">
         <v>63850</v>
       </c>
-      <c r="O51">
+      <c r="O51" t="str">
         <v>59695</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52">
+    <row r="52">
+      <c r="A52" t="str">
+        <v>51 Ceuta</v>
+      </c>
+      <c r="B52" t="str">
         <v>3604</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="str">
         <v>3618</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="str">
         <v>3597</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="str">
         <v>3597</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="str">
         <v>3568</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="str">
         <v>3719</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="str">
         <v>3755</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="str">
         <v>3810</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="str">
         <v>3899</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="str">
         <v>3789</v>
       </c>
-      <c r="L52">
+      <c r="L52" t="str">
         <v>3845</v>
       </c>
-      <c r="M52">
+      <c r="M52" t="str">
         <v>3749</v>
       </c>
-      <c r="N52">
+      <c r="N52" t="str">
         <v>3744</v>
       </c>
-      <c r="O52">
+      <c r="O52" t="str">
         <v>3369</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53">
+    <row r="53">
+      <c r="A53" t="str">
+        <v>52 Melilla</v>
+      </c>
+      <c r="B53" t="str">
         <v>3646</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="str">
         <v>3689</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="str">
         <v>3760</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="str">
         <v>3790</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="str">
         <v>3743</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="str">
         <v>4090</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="str">
         <v>4334</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="str">
         <v>4515</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="str">
         <v>4657</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="str">
         <v>5304</v>
       </c>
-      <c r="L53">
+      <c r="L53" t="str">
         <v>5234</v>
       </c>
-      <c r="M53">
+      <c r="M53" t="str">
         <v>5024</v>
       </c>
-      <c r="N53">
+      <c r="N53" t="str">
         <v>4856</v>
       </c>
-      <c r="O53">
+      <c r="O53" t="str">
         <v>4370</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:O53"/>
+  </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{d792d246-d363-40e2-82bc-6f0655128b68}" enabled="1" method="Standard" siteId="{372ee9e0-9ce0-4033-a64a-c07073a91ecd}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>